--- a/power-budget.xlsx
+++ b/power-budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDBB27A-571D-48A0-B011-9FCCD9697AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FEE327-C3E2-4EFA-9AA7-02857C03B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{3E2CB90E-95ED-4AD0-9A82-E3F0B11CDD0E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{3E2CB90E-95ED-4AD0-9A82-E3F0B11CDD0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,12 +453,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.26171875" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -495,7 +495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -507,7 +507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -522,7 +522,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -545,7 +545,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -560,7 +560,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -568,7 +568,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
